--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,46 +40,70 @@
     <t>name</t>
   </si>
   <si>
+    <t>warned</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fuck</t>
@@ -88,81 +112,102 @@
     <t>pressure</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>worse</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -184,124 +229,172 @@
     <t>hand</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>closing</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>article</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -659,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,13 +821,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -778,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -849,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -899,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="K6">
         <v>0.9302325581395349</v>
@@ -928,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8695652173913043</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K7">
-        <v>0.9190600522193212</v>
+        <v>0.9268929503916449</v>
       </c>
       <c r="L7">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M7">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -970,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -978,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8664383561643836</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C9">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="K9">
-        <v>0.9084507042253521</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1070,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1078,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,16 +1192,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K10">
-        <v>0.8984375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1120,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1128,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8275862068965517</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1146,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K11">
-        <v>0.8962264150943396</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1170,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7843137254901961</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1196,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1220,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1228,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7826086956521739</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,16 +1342,16 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="K13">
-        <v>0.8875</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L13">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1270,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1278,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.775</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K14">
-        <v>0.8793103448275862</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1328,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7692307692307693</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1346,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7666666666666667</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1396,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.875</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1420,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1428,13 +1521,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7435897435897436</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1446,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K17">
         <v>0.8611111111111112</v>
@@ -1478,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7407407407407407</v>
+        <v>0.76</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1496,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K18">
-        <v>0.8095238095238095</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1528,13 +1621,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7391304347826086</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1546,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K19">
-        <v>0.7764705882352941</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1570,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1578,13 +1671,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7364341085271318</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D20">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1596,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K20">
-        <v>0.74</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1620,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1628,13 +1721,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7297297297297297</v>
+        <v>0.75</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,10 +1742,10 @@
         <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="K21">
-        <v>0.7384615384615385</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L21">
         <v>48</v>
@@ -1670,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1678,13 +1771,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7248677248677249</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C22">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1696,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>0.8253968253968254</v>
+      </c>
+      <c r="L22">
         <v>52</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22">
-        <v>0.7364016736401674</v>
-      </c>
-      <c r="L22">
-        <v>176</v>
-      </c>
       <c r="M22">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1720,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1728,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.717948717948718</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1746,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K23">
-        <v>0.7307692307692307</v>
+        <v>0.82</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1770,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1778,13 +1871,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6949152542372882</v>
+        <v>0.7354497354497355</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="D24">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1796,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L24">
         <v>18</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="L24">
-        <v>35</v>
-      </c>
       <c r="M24">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1820,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1828,13 +1921,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6944444444444444</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,16 +1942,16 @@
         <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K25">
-        <v>0.7288135593220338</v>
+        <v>0.8</v>
       </c>
       <c r="L25">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1870,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1878,13 +1971,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6923076923076923</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,16 +1992,16 @@
         <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K26">
-        <v>0.7254901960784313</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1920,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1928,13 +2021,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6451612903225806</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1949,16 +2042,16 @@
         <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K27">
-        <v>0.723404255319149</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1970,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6442953020134228</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C28">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1996,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="K28">
-        <v>0.7222222222222222</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2020,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2028,13 +2121,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6363636363636364</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2046,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K29">
-        <v>0.7192982456140351</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2067,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2078,13 +2171,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.59375</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2096,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K30">
-        <v>0.7078651685393258</v>
+        <v>0.75</v>
       </c>
       <c r="L30">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2120,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2128,13 +2221,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5384615384615384</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2146,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="K31">
-        <v>0.6571428571428571</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2170,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2178,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2196,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2220,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2228,13 +2321,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.509090909090909</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2246,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K33">
-        <v>0.6071428571428571</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2270,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2278,13 +2371,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.509090909090909</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2296,19 +2389,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K34">
-        <v>0.6</v>
+        <v>0.7364016736401674</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2320,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2328,13 +2421,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2346,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K35">
-        <v>0.5925925925925926</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2370,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2378,49 +2471,49 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4193548387096774</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="L36">
+        <v>32</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>13</v>
-      </c>
-      <c r="D36">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>18</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K36">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="L36">
-        <v>13</v>
-      </c>
-      <c r="M36">
-        <v>13</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2428,13 +2521,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.392156862745098</v>
+        <v>0.65</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2446,19 +2539,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K37">
-        <v>0.589041095890411</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L37">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2470,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2478,13 +2571,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2496,19 +2589,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2520,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2528,13 +2621,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3506493506493507</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2546,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K39">
-        <v>0.5512820512820513</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2570,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2578,37 +2671,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.35</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>14</v>
       </c>
-      <c r="D40">
-        <v>14</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>26</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K40">
-        <v>0.5454545454545454</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2620,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2628,13 +2721,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3412698412698413</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C41">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2646,19 +2739,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K41">
-        <v>0.5185185185185185</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2670,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2678,13 +2771,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1777777777777778</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2696,19 +2789,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2720,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2728,13 +2821,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1715817694369973</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C43">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D43">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2746,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>309</v>
+        <v>25</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K43">
-        <v>0.4888888888888889</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2770,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2778,127 +2871,903 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004186795491143317</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C44">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>25</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K44">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L44">
+        <v>14</v>
+      </c>
+      <c r="M44">
+        <v>14</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C45">
         <v>13</v>
       </c>
-      <c r="D44">
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K45">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>12</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46">
+        <v>0.589041095890411</v>
+      </c>
+      <c r="L46">
+        <v>43</v>
+      </c>
+      <c r="M46">
+        <v>43</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="C47">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>42</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K47">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="C48">
         <v>15</v>
       </c>
-      <c r="E44">
-        <v>0.13</v>
-      </c>
-      <c r="F44">
-        <v>0.87</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>3092</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K44">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L44">
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K48">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>24</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>18</v>
       </c>
-      <c r="M44">
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K49">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="L49">
+        <v>44</v>
+      </c>
+      <c r="M49">
+        <v>44</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.4634146341463415</v>
+      </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>22</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K50">
+        <v>0.559322033898305</v>
+      </c>
+      <c r="L50">
+        <v>33</v>
+      </c>
+      <c r="M50">
+        <v>33</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.45</v>
+      </c>
+      <c r="C51">
         <v>18</v>
       </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K45">
-        <v>0.34375</v>
-      </c>
-      <c r="L45">
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>22</v>
       </c>
-      <c r="M45">
+      <c r="J51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51">
+        <v>0.515625</v>
+      </c>
+      <c r="L51">
+        <v>33</v>
+      </c>
+      <c r="M51">
+        <v>33</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.425</v>
+      </c>
+      <c r="C52">
+        <v>34</v>
+      </c>
+      <c r="D52">
+        <v>34</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>46</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K52">
+        <v>0.5</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>14</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="C53">
+        <v>102</v>
+      </c>
+      <c r="D53">
+        <v>102</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>150</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53">
+        <v>15</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="C54">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>48</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K54">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>16</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>34</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K55">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="L55">
+        <v>26</v>
+      </c>
+      <c r="M55">
+        <v>26</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.2091152815013405</v>
+      </c>
+      <c r="C56">
+        <v>78</v>
+      </c>
+      <c r="D56">
+        <v>78</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>295</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K56">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="L56">
+        <v>23</v>
+      </c>
+      <c r="M56">
+        <v>23</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="C57">
+        <v>28</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>272</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K57">
+        <v>0.2954545454545455</v>
+      </c>
+      <c r="L57">
+        <v>13</v>
+      </c>
+      <c r="M57">
+        <v>13</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.0102803738317757</v>
+      </c>
+      <c r="C58">
         <v>22</v>
       </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K46">
-        <v>0.3114754098360656</v>
-      </c>
-      <c r="L46">
+      <c r="D58">
+        <v>25</v>
+      </c>
+      <c r="E58">
+        <v>0.12</v>
+      </c>
+      <c r="F58">
+        <v>0.88</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2118</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K58">
+        <v>0.2</v>
+      </c>
+      <c r="L58">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.009993552546744036</v>
+      </c>
+      <c r="C59">
+        <v>31</v>
+      </c>
+      <c r="D59">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>0.14</v>
+      </c>
+      <c r="F59">
+        <v>0.86</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>3071</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K59">
+        <v>0.1759259259259259</v>
+      </c>
+      <c r="L59">
         <v>19</v>
       </c>
-      <c r="M46">
-        <v>19</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K47">
-        <v>0.2203389830508475</v>
-      </c>
-      <c r="L47">
+      <c r="M59">
+        <v>20</v>
+      </c>
+      <c r="N59">
+        <v>0.95</v>
+      </c>
+      <c r="O59">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K60">
+        <v>0.1135135135135135</v>
+      </c>
+      <c r="L60">
+        <v>21</v>
+      </c>
+      <c r="M60">
+        <v>21</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K61">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L61">
+        <v>14</v>
+      </c>
+      <c r="M61">
+        <v>14</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K62">
+        <v>0.04326923076923077</v>
+      </c>
+      <c r="L62">
+        <v>18</v>
+      </c>
+      <c r="M62">
+        <v>18</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K63">
+        <v>0.00407395800689439</v>
+      </c>
+      <c r="L63">
         <v>13</v>
       </c>
-      <c r="M47">
-        <v>13</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>46</v>
+      <c r="M63">
+        <v>23</v>
+      </c>
+      <c r="N63">
+        <v>0.57</v>
+      </c>
+      <c r="O63">
+        <v>0.43</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>3178</v>
       </c>
     </row>
   </sheetData>
